--- a/FIO_sender/Projects.xlsx
+++ b/FIO_sender/Projects.xlsx
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D1" s="3" t="n">
-        <v>44627.66822803241</v>
+        <v>44630.76629387731</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>44627.81582149306</v>
+        <v>44630.85520311342</v>
       </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>44627.66803090278</v>
+        <v>44630.76606072917</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>44627.81623582176</v>
+        <v>44630.85524954861</v>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>44627.66846431713</v>
+        <v>44630.76848768519</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>44627.81633636574</v>
+        <v>44630.85528738426</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>44627.66864793981</v>
+        <v>44630.76859356481</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>44627.8164197338</v>
+        <v>44630.85533057871</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>44627.82006767361</v>
+        <v>44630.77025105324</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>44627.8165109375</v>
+        <v>44630.85536269676</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>44627.8925994213</v>
+        <v>44630.70420918982</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>44627.81670324074</v>
+        <v>44630.85539276621</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>44627.89408626157</v>
+        <v>44630.70831976852</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>44627.81673314815</v>
+        <v>44630.8554213426</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>44627.89561856481</v>
+        <v>44630.70859130787</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>44627.81691502315</v>
+        <v>44630.85544876158</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>44627.50808920139</v>
+        <v>44630.74371604167</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>44627.81710246528</v>
+        <v>44630.85567298611</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>44627.50820471065</v>
+        <v>44630.74382881945</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>44627.81713133102</v>
+        <v>44630.85570545139</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>44627.50843392361</v>
+        <v>44630.74397674768</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>44627.81732898148</v>
+        <v>44630.85573248842</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>44627.50854310185</v>
+        <v>44630.74407980324</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>44627.81740662037</v>
+        <v>44630.85575773148</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>44627.89574078704</v>
+        <v>44630.70869892361</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>44627.81748435185</v>
+        <v>44630.85579299769</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>44627.89585842592</v>
+        <v>44630.70879945602</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>44627.81334375</v>
+        <v>44630.8558240162</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>44627.89601804398</v>
+        <v>44630.70896454861</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>44627.81346519676</v>
+        <v>44630.85585287037</v>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>44627.89614809028</v>
+        <v>44630.70908043982</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>44627.81355047454</v>
+        <v>44630.85587886574</v>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>44627.89637925926</v>
+        <v>44630.70942849537</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>44627.81368298611</v>
+        <v>44630.85590645833</v>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>44627.89654012732</v>
+        <v>44630.70960166667</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>44627.81380616898</v>
+        <v>44630.85599607639</v>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>44627.89663653935</v>
+        <v>44630.70970872685</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>44627.81388577546</v>
+        <v>44630.85602399305</v>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>44627.89673989583</v>
+        <v>44630.70980287037</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>44627.81396180556</v>
+        <v>44630.85604623843</v>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>44627.89684297454</v>
+        <v>44630.70989864584</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>44627.81411974537</v>
+        <v>44630.85637388889</v>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>44627.89693732639</v>
+        <v>44630.70999988426</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>44627.81421075232</v>
+        <v>44630.85640172454</v>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>44627.89707477544</v>
+        <v>44630.71010403935</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>44627.81428712963</v>
+        <v>44630.85642918981</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>44627.045938125</v>
+        <v>44630.73905178241</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>44627.81438273148</v>
+        <v>44630.85648059028</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>44627.04602194444</v>
+        <v>44630.73918642361</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>44627.81448914351</v>
+        <v>44630.85650498843</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>44627.04617780093</v>
+        <v>44630.73936283565</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>44627.81460853009</v>
+        <v>44630.85653011574</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>44627.04627960648</v>
+        <v>44630.73945771991</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>44627.81469630787</v>
+        <v>44630.85656289352</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>44627.04637243056</v>
+        <v>44630.73959369213</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>44627.81479725694</v>
+        <v>44630.85658891204</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>44627.0464687963</v>
+        <v>44630.73970549768</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>44627.81482362268</v>
+        <v>44630.85662403935</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>44627.04663465278</v>
+        <v>44630.73990707176</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>44627.81504495371</v>
+        <v>44630.8566880787</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>44627.04692914352</v>
+        <v>44630.74003936342</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>44627.81518864584</v>
+        <v>44630.85671846366</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>44627.05153090278</v>
+        <v>44630.74016077547</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>44627.81533637732</v>
+        <v>44630.8550603125</v>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>44627.05159501157</v>
+        <v>44630.74023228009</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>44627.81537150463</v>
+        <v>44630.85509282407</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>44627.0516677662</v>
+        <v>44630.74029773149</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>44627.81540854167</v>
+        <v>44630.85512045139</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>44627.04682046297</v>
+        <v>44630.73997304398</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>44627.81431728009</v>
+        <v>44630.85645490741</v>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D36" s="9" t="n"/>
       <c r="E36" s="9" t="n">
-        <v>44627.81568472222</v>
+        <v>44630.8551715162</v>
       </c>
       <c r="F36" s="10" t="inlineStr">
         <is>

--- a/FIO_sender/Projects.xlsx
+++ b/FIO_sender/Projects.xlsx
@@ -478,7 +478,7 @@
         <v>44630.76629387731</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>44630.85520311342</v>
+        <v>44630.8593980787</v>
       </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>44630.76606072917</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>44630.85524954861</v>
+        <v>44630.8594437963</v>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         <v>44630.76848768519</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>44630.85528738426</v>
+        <v>44630.85959011574</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>44630.76859356481</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>44630.85533057871</v>
+        <v>44630.85963200231</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>44630.77025105324</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>44630.85536269676</v>
+        <v>44630.85966494213</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         <v>44630.70420918982</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>44630.85539276621</v>
+        <v>44630.85969554398</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>44630.70831976852</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>44630.8554213426</v>
+        <v>44630.85972475694</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44630.70859130787</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>44630.85544876158</v>
+        <v>44630.859751875</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44630.74371604167</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>44630.85567298611</v>
+        <v>44630.85984324074</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>44630.74382881945</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>44630.85570545139</v>
+        <v>44630.85987461806</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44630.74397674768</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>44630.85573248842</v>
+        <v>44630.85990304398</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44630.74407980324</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>44630.85575773148</v>
+        <v>44630.85992539352</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>44630.70869892361</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>44630.85579299769</v>
+        <v>44630.85995109953</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44630.70879945602</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>44630.8558240162</v>
+        <v>44630.85997565973</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44630.70896454861</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>44630.85585287037</v>
+        <v>44630.860005625</v>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44630.70908043982</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>44630.85587886574</v>
+        <v>44630.86003186343</v>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44630.70942849537</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>44630.85590645833</v>
+        <v>44630.8600580787</v>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44630.70960166667</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>44630.85599607639</v>
+        <v>44630.86009023148</v>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>44630.70970872685</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>44630.85602399305</v>
+        <v>44630.86011708334</v>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44630.70980287037</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>44630.85604623843</v>
+        <v>44630.86020048611</v>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44630.70989864584</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>44630.85637388889</v>
+        <v>44630.86054048611</v>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44630.70999988426</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>44630.85640172454</v>
+        <v>44630.86057006945</v>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44630.71010403935</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>44630.85642918981</v>
+        <v>44630.86059367591</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44630.73905178241</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>44630.85648059028</v>
+        <v>44630.85865878472</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44630.73918642361</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>44630.85650498843</v>
+        <v>44630.85868572917</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44630.73936283565</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>44630.85653011574</v>
+        <v>44630.8587127662</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44630.73945771991</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>44630.85656289352</v>
+        <v>44630.85874728009</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44630.73959369213</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>44630.85658891204</v>
+        <v>44630.85877387731</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44630.73970549768</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>44630.85662403935</v>
+        <v>44630.85915226852</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44630.73990707176</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>44630.8566880787</v>
+        <v>44630.85918791666</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44630.74003936342</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>44630.85671846366</v>
+        <v>44630.85921989584</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44630.74016077547</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>44630.8550603125</v>
+        <v>44630.85924881944</v>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44630.74023228009</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>44630.85509282407</v>
+        <v>44630.85928089121</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44630.74029773149</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>44630.85512045139</v>
+        <v>44630.85930850694</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44630.73997304398</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>44630.85645490741</v>
+        <v>44630.85863202546</v>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D36" s="9" t="n"/>
       <c r="E36" s="9" t="n">
-        <v>44630.8551715162</v>
+        <v>44630.85936728009</v>
       </c>
       <c r="F36" s="10" t="inlineStr">
         <is>
